--- a/biology/Botanique/Aphelandra_cinnabarina/Aphelandra_cinnabarina.xlsx
+++ b/biology/Botanique/Aphelandra_cinnabarina/Aphelandra_cinnabarina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aphelandra cinnabarina est une espèce de plante de la famille des acanthacées. Elle est endémique de l'Équateur. Son habitat naturel se situe dans l'étage montagnard de la forêt tropicale humide.
 Elle est menacée à cause de la disparition de son habitat.
